--- a/experiment/output/results/VLCS/RSC/DG/2.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,320 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250210_16-35-11_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>70.64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70.64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54.037</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250210_22-30-31_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>74.372</v>
+      </c>
+      <c r="E4" t="n">
+        <v>72.506</v>
+      </c>
+      <c r="F4" t="n">
+        <v>68.279</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250211_04-55-27_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>77.95099999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67.822</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250211_00-41-26_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>74.524</v>
+      </c>
+      <c r="E6" t="n">
+        <v>71.973</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67.55500000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250210_13-14-51_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>72.73399999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>73.53400000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70.56399999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250210_19-55-35_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>74.791</v>
+      </c>
+      <c r="E8" t="n">
+        <v>72.43000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>69.459</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250211_08-35-09_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250211_06-46-21_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>75.895</v>
+      </c>
+      <c r="E10" t="n">
+        <v>72.163</v>
+      </c>
+      <c r="F10" t="n">
+        <v>72.239</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250210_18-07-33_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>75.057</v>
+      </c>
+      <c r="E11" t="n">
+        <v>72.77200000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>70.411</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250211_02-41-19_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>75.286</v>
+      </c>
+      <c r="E12" t="n">
+        <v>71.28700000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>68.46899999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment/output/results/VLCS/RSC/DG/2.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,337 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250131_14-51-43_resnet50_EVE</t>
+          <t>250211_12-21-34_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73.68600000000001</v>
+        <v>76.08499999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>71.47799999999999</v>
+        <v>76.08499999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>69.688</v>
+        <v>71.13500000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250210_16-35-11_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>70.64</v>
-      </c>
-      <c r="E3" t="n">
-        <v>70.64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>54.037</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250210_22-30-31_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>74.372</v>
-      </c>
-      <c r="E4" t="n">
-        <v>72.506</v>
-      </c>
-      <c r="F4" t="n">
-        <v>68.279</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250211_04-55-27_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>77.95099999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75.59</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67.822</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250211_00-41-26_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>74.524</v>
-      </c>
-      <c r="E6" t="n">
-        <v>71.973</v>
-      </c>
-      <c r="F6" t="n">
-        <v>67.55500000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>250210_13-14-51_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>72.73399999999999</v>
-      </c>
-      <c r="E7" t="n">
-        <v>73.53400000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>70.56399999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>250210_19-55-35_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>74.791</v>
-      </c>
-      <c r="E8" t="n">
-        <v>72.43000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>69.459</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>250211_08-35-09_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>250211_06-46-21_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>75.895</v>
-      </c>
-      <c r="E10" t="n">
-        <v>72.163</v>
-      </c>
-      <c r="F10" t="n">
-        <v>72.239</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>250210_18-07-33_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>75.057</v>
-      </c>
-      <c r="E11" t="n">
-        <v>72.77200000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>70.411</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>250211_02-41-19_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>75.286</v>
-      </c>
-      <c r="E12" t="n">
-        <v>71.28700000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>68.46899999999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/VLCS/RSC/DG/2.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250211_12-21-34_resnet50_GENIE</t>
+          <t>250215_22-33-15_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76.08499999999999</v>
+        <v>76.809</v>
       </c>
       <c r="E2" t="n">
-        <v>76.08499999999999</v>
+        <v>76.238</v>
       </c>
       <c r="F2" t="n">
-        <v>71.13500000000001</v>
+        <v>68.774</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250217_15-31-27_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/VLCS/RSC/DG/2.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,32 +507,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250217_15-31-27_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
